--- a/configPM.xlsx
+++ b/configPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA209916-797D-4D79-978F-111047827391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E61BA3B-EFB3-4453-88E9-913C1E62D160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
         <v>201001</v>
       </c>
       <c r="B2">
-        <v>201008</v>
+        <v>201010</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/configPM.xlsx
+++ b/configPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E61BA3B-EFB3-4453-88E9-913C1E62D160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DE3AD3-524C-4733-B49B-B02EA7128DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
